--- a/Burn Up Chart.xlsx
+++ b/Burn Up Chart.xlsx
@@ -766,6 +766,30 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1921,8 +1945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2198,6 +2222,9 @@
       <c r="B25">
         <v>195</v>
       </c>
+      <c r="C25">
+        <v>94</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
@@ -2206,6 +2233,9 @@
       <c r="B26">
         <v>195</v>
       </c>
+      <c r="C26">
+        <v>94</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -2214,6 +2244,9 @@
       <c r="B27">
         <v>195</v>
       </c>
+      <c r="C27">
+        <v>94</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -2222,6 +2255,9 @@
       <c r="B28">
         <v>195</v>
       </c>
+      <c r="C28">
+        <v>94</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -2230,6 +2266,9 @@
       <c r="B29">
         <v>195</v>
       </c>
+      <c r="C29">
+        <v>94</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
@@ -2238,6 +2277,9 @@
       <c r="B30">
         <v>195</v>
       </c>
+      <c r="C30">
+        <v>98</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
@@ -2246,6 +2288,9 @@
       <c r="B31">
         <v>195</v>
       </c>
+      <c r="C31">
+        <v>102</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -2253,6 +2298,9 @@
       </c>
       <c r="B32">
         <v>195</v>
+      </c>
+      <c r="C32">
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">

--- a/Burn Up Chart.xlsx
+++ b/Burn Up Chart.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -33,6 +33,21 @@
   </si>
   <si>
     <t>Total Done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint 1: </t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>Sprint 2:</t>
+  </si>
+  <si>
+    <t>Sprint 3:</t>
   </si>
 </sst>
 </file>
@@ -74,7 +89,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -85,6 +100,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -790,6 +806,36 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>163</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1943,10 +1989,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2127,7 +2173,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>42662</v>
       </c>
@@ -2138,7 +2184,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>42663</v>
       </c>
@@ -2149,7 +2195,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>42664</v>
       </c>
@@ -2160,7 +2206,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>42665</v>
       </c>
@@ -2171,7 +2217,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>42666</v>
       </c>
@@ -2182,7 +2228,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>42667</v>
       </c>
@@ -2193,7 +2239,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>42668</v>
       </c>
@@ -2204,7 +2250,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>42669</v>
       </c>
@@ -2214,8 +2260,14 @@
       <c r="C24" s="2">
         <v>90</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>42670</v>
       </c>
@@ -2225,8 +2277,17 @@
       <c r="C25">
         <v>94</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="4">
+        <v>42647</v>
+      </c>
+      <c r="H25" s="4">
+        <v>42662</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>42671</v>
       </c>
@@ -2236,8 +2297,17 @@
       <c r="C26">
         <v>94</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="4">
+        <v>42663</v>
+      </c>
+      <c r="H26" s="4">
+        <v>42678</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>42672</v>
       </c>
@@ -2247,8 +2317,17 @@
       <c r="C27">
         <v>94</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="4">
+        <v>42681</v>
+      </c>
+      <c r="H27" s="4">
+        <v>42697</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>42673</v>
       </c>
@@ -2259,7 +2338,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>42674</v>
       </c>
@@ -2270,7 +2349,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>42675</v>
       </c>
@@ -2281,7 +2360,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>42676</v>
       </c>
@@ -2292,7 +2371,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>42677</v>
       </c>
@@ -2303,87 +2382,117 @@
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>42678</v>
       </c>
       <c r="B33">
         <v>195</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>42679</v>
       </c>
       <c r="B34">
         <v>195</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>42680</v>
       </c>
       <c r="B35">
         <v>195</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>42681</v>
       </c>
       <c r="B36">
         <v>195</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>42682</v>
       </c>
       <c r="B37">
         <v>195</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>42683</v>
       </c>
       <c r="B38">
         <v>195</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>42684</v>
       </c>
       <c r="B39">
         <v>195</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>42685</v>
       </c>
       <c r="B40">
         <v>195</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>42686</v>
       </c>
       <c r="B41">
         <v>195</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>42687</v>
       </c>
       <c r="B42">
         <v>195</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42688</v>
       </c>
@@ -2391,7 +2500,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42689</v>
       </c>
@@ -2399,7 +2508,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>42690</v>
       </c>
@@ -2407,7 +2516,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>42691</v>
       </c>
@@ -2415,7 +2524,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>42692</v>
       </c>
@@ -2423,7 +2532,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>42693</v>
       </c>
